--- a/covid19/data_covid19_deaths_2020-06-24.xlsx
+++ b/covid19/data_covid19_deaths_2020-06-24.xlsx
@@ -483,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="M2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
